--- a/Filtered_By_Region/Region VI/Region VI_QRF.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA228"/>
+  <dimension ref="A1:AA223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,7 +455,7 @@
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="54" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -20768,20 +20768,20 @@
       </c>
       <c r="C216" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>San Carlos City</t>
         </is>
       </c>
       <c r="D216" s="5" t="n">
-        <v>116901</v>
+        <v>117763</v>
       </c>
       <c r="E216" s="5" t="inlineStr">
         <is>
-          <t>Calatrava I Central School</t>
+          <t>Prosperidad ES</t>
         </is>
       </c>
       <c r="F216" s="5" t="inlineStr">
         <is>
-          <t>CALATRAVA</t>
+          <t>SAN CARLOS CITY</t>
         </is>
       </c>
       <c r="G216" s="5" t="n">
@@ -20791,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="I216" s="5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J216" s="5" t="inlineStr">
         <is>
@@ -20799,61 +20799,61 @@
         </is>
       </c>
       <c r="K216" s="5" t="n">
-        <v>518534.72</v>
+        <v>3925500.03</v>
       </c>
       <c r="L216" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M216" s="5" t="n">
-        <v>514321.31</v>
+        <v>3904313.69</v>
       </c>
       <c r="N216" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O216" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P216" s="6" t="n">
-        <v>45000</v>
+        <v>45056</v>
       </c>
       <c r="Q216" s="6" t="n">
-        <v>44949</v>
+        <v>44998</v>
       </c>
       <c r="R216" s="5" t="inlineStr">
         <is>
-          <t>22-06-57</t>
-        </is>
-      </c>
-      <c r="S216" s="5" t="inlineStr">
-        <is>
-          <t>22-12-002</t>
-        </is>
+          <t>QRF 2022-RVI-SAN CARLOS CITY-003(BATCH1, Typoon oditte</t>
+        </is>
+      </c>
+      <c r="S216" s="5" t="n">
+        <v>8652568</v>
       </c>
       <c r="T216" s="6" t="n">
-        <v>44751</v>
-      </c>
-      <c r="U216" s="5" t="inlineStr"/>
+        <v>44689</v>
+      </c>
+      <c r="U216" s="6" t="n">
+        <v>44697</v>
+      </c>
       <c r="V216" s="6" t="n">
-        <v>44727</v>
-      </c>
-      <c r="W216" s="5" t="inlineStr">
-        <is>
-          <t>Sept. 8, 2022</t>
-        </is>
-      </c>
-      <c r="X216" s="5" t="inlineStr">
-        <is>
-          <t>Dec.5, 2022</t>
-        </is>
+        <v>44711</v>
+      </c>
+      <c r="W216" s="6" t="n">
+        <v>44917</v>
+      </c>
+      <c r="X216" s="6" t="n">
+        <v>44930</v>
       </c>
       <c r="Y216" s="5" t="inlineStr">
         <is>
-          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
-        </is>
-      </c>
-      <c r="Z216" s="5" t="inlineStr"/>
+          <t>PAR Builder and Construction Supply, Corp.</t>
+        </is>
+      </c>
+      <c r="Z216" s="5" t="inlineStr">
+        <is>
+          <t>realigned change physical target same school</t>
+        </is>
+      </c>
       <c r="AA216" s="7" t="n"/>
     </row>
     <row r="217">
@@ -20869,30 +20869,30 @@
       </c>
       <c r="C217" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Silay City</t>
         </is>
       </c>
       <c r="D217" s="5" t="n">
-        <v>117418</v>
+        <v>117821</v>
       </c>
       <c r="E217" s="5" t="inlineStr">
         <is>
-          <t>Toboso CS</t>
+          <t>Guimbala-on ES</t>
         </is>
       </c>
       <c r="F217" s="5" t="inlineStr">
         <is>
-          <t>TOBOSO</t>
+          <t>SILAY CITY</t>
         </is>
       </c>
       <c r="G217" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H217" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I217" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J217" s="5" t="inlineStr">
         <is>
@@ -20900,13 +20900,13 @@
         </is>
       </c>
       <c r="K217" s="5" t="n">
-        <v>8089258.699999999</v>
+        <v>1314790.08</v>
       </c>
       <c r="L217" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M217" s="5" t="n">
-        <v>5297304.81</v>
+        <v>1105354</v>
       </c>
       <c r="N217" s="5" t="inlineStr">
         <is>
@@ -20916,45 +20916,39 @@
       <c r="O217" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P217" s="6" t="n">
-        <v>45025</v>
-      </c>
+      <c r="P217" s="5" t="inlineStr"/>
       <c r="Q217" s="5" t="inlineStr"/>
       <c r="R217" s="5" t="inlineStr">
         <is>
-          <t>22-05-20</t>
+          <t>R6-D18-QRF2022-GES</t>
         </is>
       </c>
       <c r="S217" s="5" t="inlineStr">
         <is>
-          <t>22-10-003</t>
+          <t>R6-D18-QRF2022-GES</t>
         </is>
       </c>
       <c r="T217" s="6" t="n">
-        <v>44706</v>
+        <v>44832</v>
       </c>
       <c r="U217" s="6" t="n">
-        <v>44714</v>
+        <v>44840</v>
       </c>
       <c r="V217" s="6" t="n">
-        <v>44726</v>
+        <v>44853</v>
       </c>
       <c r="W217" s="6" t="n">
-        <v>44782</v>
+        <v>44900</v>
       </c>
       <c r="X217" s="6" t="n">
-        <v>44875</v>
+        <v>44930</v>
       </c>
       <c r="Y217" s="5" t="inlineStr">
         <is>
-          <t>TACOLOD ENTERPRISES INC.</t>
-        </is>
-      </c>
-      <c r="Z217" s="5" t="inlineStr">
-        <is>
-          <t>subject for final inspection</t>
-        </is>
-      </c>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="Z217" s="5" t="inlineStr"/>
       <c r="AA217" s="7" t="n"/>
     </row>
     <row r="218">
@@ -20970,94 +20964,88 @@
       </c>
       <c r="C218" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Silay City</t>
         </is>
       </c>
       <c r="D218" s="5" t="n">
-        <v>116945</v>
+        <v>117821</v>
       </c>
       <c r="E218" s="5" t="inlineStr">
         <is>
-          <t>Candoni CES</t>
+          <t>Guimbala-on ES</t>
         </is>
       </c>
       <c r="F218" s="5" t="inlineStr">
         <is>
-          <t>CANDONI</t>
+          <t>SILAY CITY</t>
         </is>
       </c>
       <c r="G218" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H218" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H218" s="5" t="inlineStr"/>
       <c r="I218" s="5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J218" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K218" s="5" t="n">
-        <v>5967014.47</v>
+        <v>13240270.81</v>
       </c>
       <c r="L218" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M218" s="5" t="n">
-        <v>3500000</v>
+        <v>11131196</v>
       </c>
       <c r="N218" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O218" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P218" s="6" t="n">
-        <v>45054</v>
+        <v>45250</v>
       </c>
       <c r="Q218" s="5" t="inlineStr"/>
       <c r="R218" s="5" t="inlineStr">
         <is>
-          <t>22-07-24</t>
+          <t>R6-D18-QRF2022-GES</t>
         </is>
       </c>
       <c r="S218" s="5" t="inlineStr">
         <is>
-          <t>22-10-004</t>
+          <t>R6-D18-QRF2022-GES</t>
         </is>
       </c>
       <c r="T218" s="6" t="n">
-        <v>44746</v>
+        <v>44832</v>
       </c>
       <c r="U218" s="6" t="n">
-        <v>44754</v>
+        <v>44840</v>
       </c>
       <c r="V218" s="6" t="n">
-        <v>44767</v>
-      </c>
-      <c r="W218" s="5" t="inlineStr">
-        <is>
-          <t>Sept. 18, 2022</t>
-        </is>
-      </c>
-      <c r="X218" s="5" t="inlineStr">
-        <is>
-          <t>#############</t>
-        </is>
+        <v>44853</v>
+      </c>
+      <c r="W218" s="6" t="n">
+        <v>44900</v>
+      </c>
+      <c r="X218" s="6" t="n">
+        <v>44930</v>
       </c>
       <c r="Y218" s="5" t="inlineStr">
         <is>
-          <t>TACOLOD ENTERPRISES INC.</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z218" s="5" t="inlineStr">
         <is>
-          <t>resumed</t>
+          <t>Waiting for approval of variation order</t>
         </is>
       </c>
       <c r="AA218" s="7" t="n"/>
@@ -21075,43 +21063,43 @@
       </c>
       <c r="C219" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Sipalay City</t>
         </is>
       </c>
       <c r="D219" s="5" t="n">
-        <v>117003</v>
+        <v>117367</v>
       </c>
       <c r="E219" s="5" t="inlineStr">
         <is>
-          <t>Inayauan CES</t>
+          <t>Binulig ES</t>
         </is>
       </c>
       <c r="F219" s="5" t="inlineStr">
         <is>
-          <t>CAUAYAN</t>
+          <t>CITY OF SIPALAY</t>
         </is>
       </c>
       <c r="G219" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H219" s="5" t="inlineStr"/>
+      <c r="H219" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I219" s="5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J219" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K219" s="5" t="n">
-        <v>7130281.67</v>
+        <v>1971461.23</v>
       </c>
       <c r="L219" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M219" s="5" t="n">
-        <v>5399595.7</v>
-      </c>
+      <c r="M219" s="5" t="inlineStr"/>
       <c r="N219" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21120,53 +21108,23 @@
       <c r="O219" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P219" s="6" t="n">
-        <v>45038</v>
-      </c>
-      <c r="Q219" s="6" t="n">
-        <v>45091</v>
-      </c>
-      <c r="R219" s="5" t="inlineStr">
-        <is>
-          <t>22-07-05</t>
-        </is>
-      </c>
-      <c r="S219" s="5" t="inlineStr">
-        <is>
-          <t>22-10-005</t>
-        </is>
-      </c>
-      <c r="T219" s="6" t="n">
-        <v>44746</v>
-      </c>
-      <c r="U219" s="6" t="n">
-        <v>44754</v>
-      </c>
-      <c r="V219" s="6" t="n">
-        <v>44767</v>
-      </c>
-      <c r="W219" s="5" t="inlineStr">
-        <is>
-          <t>Sept. 15, 2022</t>
-        </is>
-      </c>
-      <c r="X219" s="5" t="inlineStr">
-        <is>
-          <t>#############</t>
-        </is>
-      </c>
-      <c r="Y219" s="5" t="inlineStr">
-        <is>
-          <t>EVERACTIVE CONSTRUCTION AND ENGINEERING SERVICES</t>
-        </is>
-      </c>
+      <c r="P219" s="5" t="inlineStr"/>
+      <c r="Q219" s="5" t="inlineStr"/>
+      <c r="R219" s="5" t="inlineStr"/>
+      <c r="S219" s="5" t="inlineStr"/>
+      <c r="T219" s="5" t="inlineStr"/>
+      <c r="U219" s="5" t="inlineStr"/>
+      <c r="V219" s="5" t="inlineStr"/>
+      <c r="W219" s="5" t="inlineStr"/>
+      <c r="X219" s="5" t="inlineStr"/>
+      <c r="Y219" s="5" t="inlineStr"/>
       <c r="Z219" s="5" t="inlineStr"/>
       <c r="AA219" s="7" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B220" s="5" t="inlineStr">
@@ -21176,44 +21134,46 @@
       </c>
       <c r="C220" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D220" s="5" t="n">
-        <v>117003</v>
+        <v>114719</v>
       </c>
       <c r="E220" s="5" t="inlineStr">
         <is>
-          <t>Inayauan CES</t>
+          <t>Ibajay Central School</t>
         </is>
       </c>
       <c r="F220" s="5" t="inlineStr">
         <is>
-          <t>CAUAYAN</t>
-        </is>
-      </c>
-      <c r="G220" s="5" t="n">
-        <v>6</v>
+          <t>IBAJAY</t>
+        </is>
+      </c>
+      <c r="G220" s="5" t="inlineStr">
+        <is>
+          <t>Lone</t>
+        </is>
       </c>
       <c r="H220" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I220" s="5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J220" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K220" s="5" t="n">
-        <v>4031169.30397319</v>
+        <v>1358264.33519175</v>
       </c>
       <c r="L220" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M220" s="5" t="n">
-        <v>2768808.34</v>
+        <v>1078677.99</v>
       </c>
       <c r="N220" s="5" t="inlineStr">
         <is>
@@ -21224,41 +21184,39 @@
         <v>1</v>
       </c>
       <c r="P220" s="6" t="n">
-        <v>44979</v>
+        <v>45079</v>
       </c>
       <c r="Q220" s="6" t="n">
-        <v>44965</v>
+        <v>45079</v>
       </c>
       <c r="R220" s="5" t="inlineStr">
         <is>
-          <t>22-07-23</t>
+          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
         </is>
       </c>
       <c r="S220" s="5" t="inlineStr">
         <is>
-          <t>22-10-006</t>
+          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
         </is>
       </c>
       <c r="T220" s="6" t="n">
-        <v>44746</v>
+        <v>44963</v>
       </c>
       <c r="U220" s="6" t="n">
-        <v>44754</v>
+        <v>44970</v>
       </c>
       <c r="V220" s="6" t="n">
-        <v>44767</v>
-      </c>
-      <c r="W220" s="5" t="inlineStr">
-        <is>
-          <t>Sept. 13, 2022</t>
-        </is>
+        <v>44984</v>
+      </c>
+      <c r="W220" s="6" t="n">
+        <v>44993</v>
       </c>
       <c r="X220" s="6" t="n">
-        <v>44876</v>
+        <v>45012</v>
       </c>
       <c r="Y220" s="5" t="inlineStr">
         <is>
-          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
+          <t>AGM SILVER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z220" s="5" t="inlineStr"/>
@@ -21267,7 +21225,7 @@
     <row r="221">
       <c r="A221" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B221" s="5" t="inlineStr">
@@ -21277,44 +21235,46 @@
       </c>
       <c r="C221" s="5" t="inlineStr">
         <is>
-          <t>San Carlos City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D221" s="5" t="n">
-        <v>117763</v>
+        <v>114786</v>
       </c>
       <c r="E221" s="5" t="inlineStr">
         <is>
-          <t>Prosperidad ES</t>
+          <t>Libacao Central ES</t>
         </is>
       </c>
       <c r="F221" s="5" t="inlineStr">
         <is>
-          <t>SAN CARLOS CITY</t>
-        </is>
-      </c>
-      <c r="G221" s="5" t="n">
-        <v>1</v>
+          <t>LIBACAO</t>
+        </is>
+      </c>
+      <c r="G221" s="5" t="inlineStr">
+        <is>
+          <t>Lone</t>
+        </is>
       </c>
       <c r="H221" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I221" s="5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J221" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K221" s="5" t="n">
-        <v>3925500.03</v>
+        <v>1505376.28</v>
       </c>
       <c r="L221" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M221" s="5" t="n">
-        <v>3904313.69</v>
+        <v>1248136.99</v>
       </c>
       <c r="N221" s="5" t="inlineStr">
         <is>
@@ -21325,42 +21285,44 @@
         <v>1</v>
       </c>
       <c r="P221" s="6" t="n">
-        <v>45056</v>
+        <v>45079</v>
       </c>
       <c r="Q221" s="6" t="n">
-        <v>44998</v>
+        <v>45079</v>
       </c>
       <c r="R221" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022-RVI-SAN CARLOS CITY-003(BATCH1, Typoon oditte</t>
-        </is>
-      </c>
-      <c r="S221" s="5" t="n">
-        <v>8652568</v>
+          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
+        </is>
+      </c>
+      <c r="S221" s="5" t="inlineStr">
+        <is>
+          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
+        </is>
       </c>
       <c r="T221" s="6" t="n">
-        <v>44689</v>
+        <v>44963</v>
       </c>
       <c r="U221" s="6" t="n">
-        <v>44697</v>
+        <v>44970</v>
       </c>
       <c r="V221" s="6" t="n">
-        <v>44711</v>
+        <v>44984</v>
       </c>
       <c r="W221" s="6" t="n">
-        <v>44917</v>
+        <v>44993</v>
       </c>
       <c r="X221" s="6" t="n">
-        <v>44930</v>
+        <v>45012</v>
       </c>
       <c r="Y221" s="5" t="inlineStr">
         <is>
-          <t>PAR Builder and Construction Supply, Corp.</t>
+          <t>AGM SILVER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z221" s="5" t="inlineStr">
         <is>
-          <t>realigned change physical target same school</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="AA221" s="7" t="n"/>
@@ -21368,7 +21330,7 @@
     <row r="222">
       <c r="A222" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B222" s="5" t="inlineStr">
@@ -21378,92 +21340,102 @@
       </c>
       <c r="C222" s="5" t="inlineStr">
         <is>
-          <t>Silay City</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D222" s="5" t="n">
-        <v>117821</v>
+        <v>115858</v>
       </c>
       <c r="E222" s="5" t="inlineStr">
         <is>
-          <t>Guimbala-on ES</t>
+          <t>Suclaran Central School</t>
         </is>
       </c>
       <c r="F222" s="5" t="inlineStr">
         <is>
-          <t>SILAY CITY</t>
-        </is>
-      </c>
-      <c r="G222" s="5" t="n">
-        <v>3</v>
+          <t>SAN LORENZO</t>
+        </is>
+      </c>
+      <c r="G222" s="5" t="inlineStr">
+        <is>
+          <t>Lone</t>
+        </is>
       </c>
       <c r="H222" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I222" s="5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J222" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K222" s="5" t="n">
-        <v>1314790.08</v>
+        <v>6521637.257870592</v>
       </c>
       <c r="L222" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M222" s="5" t="n">
-        <v>1105354</v>
+        <v>6471000</v>
       </c>
       <c r="N222" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O222" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P222" s="5" t="inlineStr"/>
-      <c r="Q222" s="5" t="inlineStr"/>
+      <c r="P222" s="6" t="n">
+        <v>45174</v>
+      </c>
+      <c r="Q222" s="6" t="n">
+        <v>45170</v>
+      </c>
       <c r="R222" s="5" t="inlineStr">
         <is>
-          <t>R6-D18-QRF2022-GES</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="S222" s="5" t="inlineStr">
         <is>
-          <t>R6-D18-QRF2022-GES</t>
+          <t>01-2023</t>
         </is>
       </c>
       <c r="T222" s="6" t="n">
-        <v>44832</v>
+        <v>44959</v>
       </c>
       <c r="U222" s="6" t="n">
-        <v>44840</v>
+        <v>44984</v>
       </c>
       <c r="V222" s="6" t="n">
-        <v>44853</v>
+        <v>44987</v>
       </c>
       <c r="W222" s="6" t="n">
-        <v>44900</v>
+        <v>45000</v>
       </c>
       <c r="X222" s="6" t="n">
-        <v>44930</v>
+        <v>45012</v>
       </c>
       <c r="Y222" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z222" s="5" t="inlineStr"/>
+      <c r="Z222" s="5" t="inlineStr">
+        <is>
+          <t>substancially completed; conducted final inspection</t>
+        </is>
+      </c>
       <c r="AA222" s="7" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2024</t>
         </is>
       </c>
       <c r="B223" s="5" t="inlineStr">
@@ -21473,582 +21445,101 @@
       </c>
       <c r="C223" s="5" t="inlineStr">
         <is>
-          <t>Silay City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D223" s="5" t="n">
-        <v>117821</v>
+        <v>116055</v>
       </c>
       <c r="E223" s="5" t="inlineStr">
         <is>
-          <t>Guimbala-on ES</t>
+          <t>Salihid ES</t>
         </is>
       </c>
       <c r="F223" s="5" t="inlineStr">
         <is>
-          <t>SILAY CITY</t>
-        </is>
-      </c>
-      <c r="G223" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H223" s="5" t="inlineStr"/>
+          <t>BAROTAC NUEVO</t>
+        </is>
+      </c>
+      <c r="G223" s="5" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="H223" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I223" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J223" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>1STY2CL</t>
         </is>
       </c>
       <c r="K223" s="5" t="n">
-        <v>13240270.81</v>
-      </c>
-      <c r="L223" s="5" t="n">
-        <v>1</v>
+        <v>9475815.289999999</v>
+      </c>
+      <c r="L223" s="5" t="inlineStr">
+        <is>
+          <t>1- NC</t>
+        </is>
       </c>
       <c r="M223" s="5" t="n">
-        <v>11131196</v>
+        <v>6702484.43</v>
       </c>
       <c r="N223" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="O223" s="5" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="P223" s="6" t="n">
-        <v>45250</v>
+        <v>45875</v>
       </c>
       <c r="Q223" s="5" t="inlineStr"/>
       <c r="R223" s="5" t="inlineStr">
         <is>
-          <t>R6-D18-QRF2022-GES</t>
+          <t>QRF2024-RVI-022-ILOILO-L1</t>
         </is>
       </c>
       <c r="S223" s="5" t="inlineStr">
         <is>
-          <t>R6-D18-QRF2022-GES</t>
+          <t>QRF2024-RVI-022-ILOILO-L1</t>
         </is>
       </c>
       <c r="T223" s="6" t="n">
-        <v>44832</v>
+        <v>45512</v>
       </c>
       <c r="U223" s="6" t="n">
-        <v>44840</v>
+        <v>45518</v>
       </c>
       <c r="V223" s="6" t="n">
-        <v>44853</v>
+        <v>45534</v>
       </c>
       <c r="W223" s="6" t="n">
-        <v>44900</v>
+        <v>45546</v>
       </c>
       <c r="X223" s="6" t="n">
-        <v>44930</v>
+        <v>45632</v>
       </c>
       <c r="Y223" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z223" s="5" t="inlineStr">
         <is>
-          <t>Waiting for approval of variation order</t>
+          <t>For Contract</t>
         </is>
       </c>
       <c r="AA223" s="7" t="n"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022</t>
-        </is>
-      </c>
-      <c r="B224" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C224" s="5" t="inlineStr">
-        <is>
-          <t>Sipalay City</t>
-        </is>
-      </c>
-      <c r="D224" s="5" t="n">
-        <v>117367</v>
-      </c>
-      <c r="E224" s="5" t="inlineStr">
-        <is>
-          <t>Binulig ES</t>
-        </is>
-      </c>
-      <c r="F224" s="5" t="inlineStr">
-        <is>
-          <t>CITY OF SIPALAY</t>
-        </is>
-      </c>
-      <c r="G224" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H224" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J224" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR/ REHABILITATION</t>
-        </is>
-      </c>
-      <c r="K224" s="5" t="n">
-        <v>1971461.23</v>
-      </c>
-      <c r="L224" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" s="5" t="inlineStr"/>
-      <c r="N224" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O224" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P224" s="5" t="inlineStr"/>
-      <c r="Q224" s="5" t="inlineStr"/>
-      <c r="R224" s="5" t="inlineStr"/>
-      <c r="S224" s="5" t="inlineStr"/>
-      <c r="T224" s="5" t="inlineStr"/>
-      <c r="U224" s="5" t="inlineStr"/>
-      <c r="V224" s="5" t="inlineStr"/>
-      <c r="W224" s="5" t="inlineStr"/>
-      <c r="X224" s="5" t="inlineStr"/>
-      <c r="Y224" s="5" t="inlineStr"/>
-      <c r="Z224" s="5" t="inlineStr"/>
-      <c r="AA224" s="7" t="n"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B225" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C225" s="5" t="inlineStr">
-        <is>
-          <t>Aklan</t>
-        </is>
-      </c>
-      <c r="D225" s="5" t="n">
-        <v>114719</v>
-      </c>
-      <c r="E225" s="5" t="inlineStr">
-        <is>
-          <t>Ibajay Central School</t>
-        </is>
-      </c>
-      <c r="F225" s="5" t="inlineStr">
-        <is>
-          <t>IBAJAY</t>
-        </is>
-      </c>
-      <c r="G225" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H225" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J225" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K225" s="5" t="n">
-        <v>1358264.33519175</v>
-      </c>
-      <c r="L225" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" s="5" t="n">
-        <v>1078677.99</v>
-      </c>
-      <c r="N225" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O225" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P225" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="Q225" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="R225" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
-        </is>
-      </c>
-      <c r="S225" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
-        </is>
-      </c>
-      <c r="T225" s="6" t="n">
-        <v>44963</v>
-      </c>
-      <c r="U225" s="6" t="n">
-        <v>44970</v>
-      </c>
-      <c r="V225" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="W225" s="6" t="n">
-        <v>44993</v>
-      </c>
-      <c r="X225" s="6" t="n">
-        <v>45012</v>
-      </c>
-      <c r="Y225" s="5" t="inlineStr">
-        <is>
-          <t>AGM SILVER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z225" s="5" t="inlineStr"/>
-      <c r="AA225" s="7" t="n"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B226" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C226" s="5" t="inlineStr">
-        <is>
-          <t>Aklan</t>
-        </is>
-      </c>
-      <c r="D226" s="5" t="n">
-        <v>114786</v>
-      </c>
-      <c r="E226" s="5" t="inlineStr">
-        <is>
-          <t>Libacao Central ES</t>
-        </is>
-      </c>
-      <c r="F226" s="5" t="inlineStr">
-        <is>
-          <t>LIBACAO</t>
-        </is>
-      </c>
-      <c r="G226" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H226" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J226" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K226" s="5" t="n">
-        <v>1505376.28</v>
-      </c>
-      <c r="L226" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" s="5" t="n">
-        <v>1248136.99</v>
-      </c>
-      <c r="N226" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O226" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P226" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="Q226" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="R226" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
-        </is>
-      </c>
-      <c r="S226" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
-        </is>
-      </c>
-      <c r="T226" s="6" t="n">
-        <v>44963</v>
-      </c>
-      <c r="U226" s="6" t="n">
-        <v>44970</v>
-      </c>
-      <c r="V226" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="W226" s="6" t="n">
-        <v>44993</v>
-      </c>
-      <c r="X226" s="6" t="n">
-        <v>45012</v>
-      </c>
-      <c r="Y226" s="5" t="inlineStr">
-        <is>
-          <t>AGM SILVER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z226" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="AA226" s="7" t="n"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B227" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C227" s="5" t="inlineStr">
-        <is>
-          <t>Guimaras</t>
-        </is>
-      </c>
-      <c r="D227" s="5" t="n">
-        <v>115858</v>
-      </c>
-      <c r="E227" s="5" t="inlineStr">
-        <is>
-          <t>Suclaran Central School</t>
-        </is>
-      </c>
-      <c r="F227" s="5" t="inlineStr">
-        <is>
-          <t>SAN LORENZO</t>
-        </is>
-      </c>
-      <c r="G227" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H227" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="J227" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K227" s="5" t="n">
-        <v>6521637.257870592</v>
-      </c>
-      <c r="L227" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" s="5" t="n">
-        <v>6471000</v>
-      </c>
-      <c r="N227" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O227" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P227" s="6" t="n">
-        <v>45174</v>
-      </c>
-      <c r="Q227" s="6" t="n">
-        <v>45170</v>
-      </c>
-      <c r="R227" s="5" t="inlineStr">
-        <is>
-          <t>01-2023</t>
-        </is>
-      </c>
-      <c r="S227" s="5" t="inlineStr">
-        <is>
-          <t>01-2023</t>
-        </is>
-      </c>
-      <c r="T227" s="6" t="n">
-        <v>44959</v>
-      </c>
-      <c r="U227" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="V227" s="6" t="n">
-        <v>44987</v>
-      </c>
-      <c r="W227" s="6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="X227" s="6" t="n">
-        <v>45012</v>
-      </c>
-      <c r="Y227" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="Z227" s="5" t="inlineStr">
-        <is>
-          <t>substancially completed; conducted final inspection</t>
-        </is>
-      </c>
-      <c r="AA227" s="7" t="n"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2024</t>
-        </is>
-      </c>
-      <c r="B228" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C228" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D228" s="5" t="n">
-        <v>116055</v>
-      </c>
-      <c r="E228" s="5" t="inlineStr">
-        <is>
-          <t>Salihid ES</t>
-        </is>
-      </c>
-      <c r="F228" s="5" t="inlineStr">
-        <is>
-          <t>BAROTAC NUEVO</t>
-        </is>
-      </c>
-      <c r="G228" s="5" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="H228" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J228" s="5" t="inlineStr">
-        <is>
-          <t>1STY2CL</t>
-        </is>
-      </c>
-      <c r="K228" s="5" t="n">
-        <v>9475815.289999999</v>
-      </c>
-      <c r="L228" s="5" t="inlineStr">
-        <is>
-          <t>1- NC</t>
-        </is>
-      </c>
-      <c r="M228" s="5" t="n">
-        <v>6702484.43</v>
-      </c>
-      <c r="N228" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="O228" s="5" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="P228" s="6" t="n">
-        <v>45875</v>
-      </c>
-      <c r="Q228" s="5" t="inlineStr"/>
-      <c r="R228" s="5" t="inlineStr">
-        <is>
-          <t>QRF2024-RVI-022-ILOILO-L1</t>
-        </is>
-      </c>
-      <c r="S228" s="5" t="inlineStr">
-        <is>
-          <t>QRF2024-RVI-022-ILOILO-L1</t>
-        </is>
-      </c>
-      <c r="T228" s="6" t="n">
-        <v>45512</v>
-      </c>
-      <c r="U228" s="6" t="n">
-        <v>45518</v>
-      </c>
-      <c r="V228" s="6" t="n">
-        <v>45534</v>
-      </c>
-      <c r="W228" s="6" t="n">
-        <v>45546</v>
-      </c>
-      <c r="X228" s="6" t="n">
-        <v>45632</v>
-      </c>
-      <c r="Y228" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z228" s="5" t="inlineStr">
-        <is>
-          <t>For Contract</t>
-        </is>
-      </c>
-      <c r="AA228" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA223" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_QRF.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA223"/>
+  <dimension ref="A1:AA215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,10 +455,10 @@
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="54" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
@@ -470,7 +470,7 @@
     <col width="26" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
     <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="56" customWidth="1" min="18" max="18"/>
+    <col width="42" customWidth="1" min="18" max="18"/>
     <col width="42" customWidth="1" min="19" max="19"/>
     <col width="31" customWidth="1" min="20" max="20"/>
     <col width="27" customWidth="1" min="21" max="21"/>
@@ -19917,85 +19917,89 @@
       </c>
       <c r="C207" s="5" t="inlineStr">
         <is>
-          <t>Bago City</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D207" s="5" t="n">
-        <v>302721</v>
+        <v>115844</v>
       </c>
       <c r="E207" s="5" t="inlineStr">
         <is>
-          <t>Ramon Torres Ma-ao Sugar Central NHS</t>
+          <t>Supang Central School</t>
         </is>
       </c>
       <c r="F207" s="5" t="inlineStr">
         <is>
-          <t>BAGO CITY</t>
+          <t>BUENAVISTA</t>
         </is>
       </c>
       <c r="G207" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H207" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="J207" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K207" s="5" t="n">
-        <v>1155849.256988548</v>
+        <v>2926129.7794281</v>
       </c>
       <c r="L207" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M207" s="5" t="n">
-        <v>1135148.82</v>
+        <v>2433541.73</v>
       </c>
       <c r="N207" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O207" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P207" s="6" t="n">
-        <v>45078</v>
+        <v>44924</v>
       </c>
       <c r="Q207" s="6" t="n">
-        <v>45112</v>
+        <v>44921</v>
       </c>
       <c r="R207" s="5" t="inlineStr">
         <is>
-          <t>Bago-QRF-2022-C1</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S207" s="5" t="inlineStr">
         <is>
-          <t>002-2023</t>
-        </is>
-      </c>
-      <c r="T207" s="6" t="n">
-        <v>44876</v>
+          <t>05-2022-lot 1</t>
+        </is>
+      </c>
+      <c r="T207" s="5" t="inlineStr">
+        <is>
+          <t>No. 05-A-2022</t>
+        </is>
       </c>
       <c r="U207" s="6" t="n">
-        <v>44883</v>
+        <v>44704</v>
       </c>
       <c r="V207" s="6" t="n">
-        <v>44897</v>
-      </c>
-      <c r="W207" s="5" t="inlineStr"/>
+        <v>44721</v>
+      </c>
+      <c r="W207" s="6" t="n">
+        <v>44735</v>
+      </c>
       <c r="X207" s="6" t="n">
-        <v>44959</v>
+        <v>44743</v>
       </c>
       <c r="Y207" s="5" t="inlineStr">
         <is>
-          <t>Sunshine Sapphire Construction and Supply, Inc.</t>
+          <t>ALJ Construction and Supply</t>
         </is>
       </c>
       <c r="Z207" s="5" t="inlineStr"/>
@@ -20014,30 +20018,30 @@
       </c>
       <c r="C208" s="5" t="inlineStr">
         <is>
-          <t>Bago City</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D208" s="5" t="n">
-        <v>302719</v>
+        <v>115897</v>
       </c>
       <c r="E208" s="5" t="inlineStr">
         <is>
-          <t>Ramon Torres NHS</t>
+          <t>Nueva Valencia Central School</t>
         </is>
       </c>
       <c r="F208" s="5" t="inlineStr">
         <is>
-          <t>BAGO CITY</t>
+          <t>NUEVA VALENCIA</t>
         </is>
       </c>
       <c r="G208" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H208" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I208" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J208" s="5" t="inlineStr">
         <is>
@@ -20045,59 +20049,61 @@
         </is>
       </c>
       <c r="K208" s="5" t="n">
-        <v>1032901.1361375</v>
+        <v>2464442.224729524</v>
       </c>
       <c r="L208" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M208" s="5" t="n">
-        <v>1031087.4</v>
+        <v>3155555.55</v>
       </c>
       <c r="N208" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O208" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P208" s="6" t="n">
-        <v>45078</v>
-      </c>
-      <c r="Q208" s="5" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="Q208" s="6" t="n">
+        <v>45289</v>
+      </c>
       <c r="R208" s="5" t="inlineStr">
         <is>
-          <t>Bago-QRF-2022-C1</t>
+          <t>05-2022-lot2</t>
         </is>
       </c>
       <c r="S208" s="5" t="inlineStr">
         <is>
-          <t>002-2023</t>
-        </is>
-      </c>
-      <c r="T208" s="6" t="n">
-        <v>44876</v>
+          <t>05-2022-lot2</t>
+        </is>
+      </c>
+      <c r="T208" s="5" t="inlineStr">
+        <is>
+          <t>No. 05-B-2022</t>
+        </is>
       </c>
       <c r="U208" s="6" t="n">
-        <v>44883</v>
+        <v>44704</v>
       </c>
       <c r="V208" s="6" t="n">
-        <v>44897</v>
-      </c>
-      <c r="W208" s="5" t="inlineStr"/>
+        <v>44721</v>
+      </c>
+      <c r="W208" s="6" t="n">
+        <v>44735</v>
+      </c>
       <c r="X208" s="6" t="n">
-        <v>44959</v>
+        <v>44743</v>
       </c>
       <c r="Y208" s="5" t="inlineStr">
         <is>
-          <t>Sunshine Sapphire Construction and Supply, Inc.</t>
-        </is>
-      </c>
-      <c r="Z208" s="5" t="inlineStr">
-        <is>
-          <t>Punchlisted items were not completely rectified by the contractor</t>
-        </is>
-      </c>
+          <t>Early Riser Construction</t>
+        </is>
+      </c>
+      <c r="Z208" s="5" t="inlineStr"/>
       <c r="AA208" s="7" t="n"/>
     </row>
     <row r="209">
@@ -20117,16 +20123,16 @@
         </is>
       </c>
       <c r="D209" s="5" t="n">
-        <v>115844</v>
+        <v>115877</v>
       </c>
       <c r="E209" s="5" t="inlineStr">
         <is>
-          <t>Supang Central School</t>
+          <t>Ayangan Elementary School</t>
         </is>
       </c>
       <c r="F209" s="5" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>SIBUNAG</t>
         </is>
       </c>
       <c r="G209" s="5" t="n">
@@ -20136,7 +20142,7 @@
         <v>1</v>
       </c>
       <c r="I209" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J209" s="5" t="inlineStr">
         <is>
@@ -20144,13 +20150,13 @@
         </is>
       </c>
       <c r="K209" s="5" t="n">
-        <v>2926129.7794281</v>
+        <v>3191080.343574463</v>
       </c>
       <c r="L209" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M209" s="5" t="n">
-        <v>2433541.73</v>
+        <v>2900000</v>
       </c>
       <c r="N209" s="5" t="inlineStr">
         <is>
@@ -20164,21 +20170,21 @@
         <v>44924</v>
       </c>
       <c r="Q209" s="6" t="n">
-        <v>44921</v>
+        <v>44923</v>
       </c>
       <c r="R209" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S209" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="T209" s="5" t="inlineStr">
         <is>
-          <t>No. 05-A-2022</t>
+          <t>No. 05-C-2022</t>
         </is>
       </c>
       <c r="U209" s="6" t="n">
@@ -20195,7 +20201,7 @@
       </c>
       <c r="Y209" s="5" t="inlineStr">
         <is>
-          <t>ALJ Construction and Supply</t>
+          <t>IJOJPA Construction</t>
         </is>
       </c>
       <c r="Z209" s="5" t="inlineStr"/>
@@ -20214,30 +20220,30 @@
       </c>
       <c r="C210" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D210" s="5" t="n">
-        <v>115897</v>
+        <v>116570</v>
       </c>
       <c r="E210" s="5" t="inlineStr">
         <is>
-          <t>Nueva Valencia Central School</t>
+          <t>Miagao Central Elementary School</t>
         </is>
       </c>
       <c r="F210" s="5" t="inlineStr">
         <is>
-          <t>NUEVA VALENCIA</t>
+          <t>MIAGAO</t>
         </is>
       </c>
       <c r="G210" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I210" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J210" s="5" t="inlineStr">
         <is>
@@ -20245,14 +20251,12 @@
         </is>
       </c>
       <c r="K210" s="5" t="n">
-        <v>2464442.224729524</v>
+        <v>2089631.17</v>
       </c>
       <c r="L210" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M210" s="5" t="n">
-        <v>3155555.55</v>
-      </c>
+      <c r="M210" s="5" t="inlineStr"/>
       <c r="N210" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -20261,42 +20265,32 @@
       <c r="O210" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P210" s="6" t="n">
-        <v>44924</v>
-      </c>
+      <c r="P210" s="5" t="inlineStr"/>
       <c r="Q210" s="6" t="n">
-        <v>45289</v>
+        <v>44882</v>
       </c>
       <c r="R210" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot2</t>
-        </is>
-      </c>
-      <c r="S210" s="5" t="inlineStr">
-        <is>
-          <t>05-2022-lot2</t>
-        </is>
-      </c>
-      <c r="T210" s="5" t="inlineStr">
-        <is>
-          <t>No. 05-B-2022</t>
-        </is>
-      </c>
-      <c r="U210" s="6" t="n">
-        <v>44704</v>
-      </c>
+          <t>QRF2022-RVI-022-ILOILO-L1</t>
+        </is>
+      </c>
+      <c r="S210" s="5" t="inlineStr"/>
+      <c r="T210" s="6" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U210" s="5" t="inlineStr"/>
       <c r="V210" s="6" t="n">
-        <v>44721</v>
+        <v>44739</v>
       </c>
       <c r="W210" s="6" t="n">
-        <v>44735</v>
+        <v>44781</v>
       </c>
       <c r="X210" s="6" t="n">
-        <v>44743</v>
+        <v>44848</v>
       </c>
       <c r="Y210" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>ANJUSH BUILDERS</t>
         </is>
       </c>
       <c r="Z210" s="5" t="inlineStr"/>
@@ -20315,30 +20309,30 @@
       </c>
       <c r="C211" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D211" s="5" t="n">
-        <v>115877</v>
+        <v>116740</v>
       </c>
       <c r="E211" s="5" t="inlineStr">
         <is>
-          <t>Ayangan Elementary School</t>
+          <t>San Joaquin Central Elementary School</t>
         </is>
       </c>
       <c r="F211" s="5" t="inlineStr">
         <is>
-          <t>SIBUNAG</t>
+          <t>SAN JOAQUIN</t>
         </is>
       </c>
       <c r="G211" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I211" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J211" s="5" t="inlineStr">
         <is>
@@ -20346,14 +20340,12 @@
         </is>
       </c>
       <c r="K211" s="5" t="n">
-        <v>3191080.343574463</v>
+        <v>842235.89</v>
       </c>
       <c r="L211" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M211" s="5" t="n">
-        <v>2900000</v>
-      </c>
+      <c r="M211" s="5" t="inlineStr"/>
       <c r="N211" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -20362,42 +20354,32 @@
       <c r="O211" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P211" s="6" t="n">
-        <v>44924</v>
-      </c>
+      <c r="P211" s="5" t="inlineStr"/>
       <c r="Q211" s="6" t="n">
-        <v>44923</v>
+        <v>44882</v>
       </c>
       <c r="R211" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
-        </is>
-      </c>
-      <c r="S211" s="5" t="inlineStr">
-        <is>
-          <t>05-2022-lot3</t>
-        </is>
-      </c>
-      <c r="T211" s="5" t="inlineStr">
-        <is>
-          <t>No. 05-C-2022</t>
-        </is>
-      </c>
-      <c r="U211" s="6" t="n">
-        <v>44704</v>
-      </c>
+          <t>QRF2022-RVI-022-ILOILO-L1</t>
+        </is>
+      </c>
+      <c r="S211" s="5" t="inlineStr"/>
+      <c r="T211" s="6" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U211" s="5" t="inlineStr"/>
       <c r="V211" s="6" t="n">
-        <v>44721</v>
+        <v>44739</v>
       </c>
       <c r="W211" s="6" t="n">
-        <v>44735</v>
+        <v>44781</v>
       </c>
       <c r="X211" s="6" t="n">
-        <v>44743</v>
+        <v>44848</v>
       </c>
       <c r="Y211" s="5" t="inlineStr">
         <is>
-          <t>IJOJPA Construction</t>
+          <t>ANJUSH BUILDERS</t>
         </is>
       </c>
       <c r="Z211" s="5" t="inlineStr"/>
@@ -20406,7 +20388,7 @@
     <row r="212">
       <c r="A212" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B212" s="5" t="inlineStr">
@@ -20416,77 +20398,89 @@
       </c>
       <c r="C212" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D212" s="5" t="n">
-        <v>116570</v>
+        <v>114719</v>
       </c>
       <c r="E212" s="5" t="inlineStr">
         <is>
-          <t>Miagao Central Elementary School</t>
+          <t>Ibajay Central School</t>
         </is>
       </c>
       <c r="F212" s="5" t="inlineStr">
         <is>
-          <t>MIAGAO</t>
-        </is>
-      </c>
-      <c r="G212" s="5" t="n">
-        <v>1</v>
+          <t>IBAJAY</t>
+        </is>
+      </c>
+      <c r="G212" s="5" t="inlineStr">
+        <is>
+          <t>Lone</t>
+        </is>
       </c>
       <c r="H212" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I212" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J212" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K212" s="5" t="n">
-        <v>2089631.17</v>
+        <v>1358264.33519175</v>
       </c>
       <c r="L212" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M212" s="5" t="inlineStr"/>
+      <c r="M212" s="5" t="n">
+        <v>1078677.99</v>
+      </c>
       <c r="N212" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O212" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P212" s="5" t="inlineStr"/>
+      <c r="P212" s="6" t="n">
+        <v>45079</v>
+      </c>
       <c r="Q212" s="6" t="n">
-        <v>44882</v>
+        <v>45079</v>
       </c>
       <c r="R212" s="5" t="inlineStr">
         <is>
-          <t>QRF2022-RVI-022-ILOILO-L1</t>
-        </is>
-      </c>
-      <c r="S212" s="5" t="inlineStr"/>
+          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
+        </is>
+      </c>
+      <c r="S212" s="5" t="inlineStr">
+        <is>
+          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
+        </is>
+      </c>
       <c r="T212" s="6" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U212" s="5" t="inlineStr"/>
+        <v>44963</v>
+      </c>
+      <c r="U212" s="6" t="n">
+        <v>44970</v>
+      </c>
       <c r="V212" s="6" t="n">
-        <v>44739</v>
+        <v>44984</v>
       </c>
       <c r="W212" s="6" t="n">
-        <v>44781</v>
+        <v>44993</v>
       </c>
       <c r="X212" s="6" t="n">
-        <v>44848</v>
+        <v>45012</v>
       </c>
       <c r="Y212" s="5" t="inlineStr">
         <is>
-          <t>ANJUSH BUILDERS</t>
+          <t>AGM SILVER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z212" s="5" t="inlineStr"/>
@@ -20495,7 +20489,7 @@
     <row r="213">
       <c r="A213" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B213" s="5" t="inlineStr">
@@ -20505,86 +20499,102 @@
       </c>
       <c r="C213" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D213" s="5" t="n">
-        <v>116740</v>
+        <v>114786</v>
       </c>
       <c r="E213" s="5" t="inlineStr">
         <is>
-          <t>San Joaquin Central Elementary School</t>
+          <t>Libacao Central ES</t>
         </is>
       </c>
       <c r="F213" s="5" t="inlineStr">
         <is>
-          <t>SAN JOAQUIN</t>
-        </is>
-      </c>
-      <c r="G213" s="5" t="n">
-        <v>1</v>
+          <t>LIBACAO</t>
+        </is>
+      </c>
+      <c r="G213" s="5" t="inlineStr">
+        <is>
+          <t>Lone</t>
+        </is>
       </c>
       <c r="H213" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I213" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J213" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K213" s="5" t="n">
-        <v>842235.89</v>
+        <v>1505376.28</v>
       </c>
       <c r="L213" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M213" s="5" t="inlineStr"/>
+      <c r="M213" s="5" t="n">
+        <v>1248136.99</v>
+      </c>
       <c r="N213" s="5" t="inlineStr">
         <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="O213" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P213" s="6" t="n">
+        <v>45079</v>
+      </c>
+      <c r="Q213" s="6" t="n">
+        <v>45079</v>
+      </c>
+      <c r="R213" s="5" t="inlineStr">
+        <is>
+          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
+        </is>
+      </c>
+      <c r="S213" s="5" t="inlineStr">
+        <is>
+          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
+        </is>
+      </c>
+      <c r="T213" s="6" t="n">
+        <v>44963</v>
+      </c>
+      <c r="U213" s="6" t="n">
+        <v>44970</v>
+      </c>
+      <c r="V213" s="6" t="n">
+        <v>44984</v>
+      </c>
+      <c r="W213" s="6" t="n">
+        <v>44993</v>
+      </c>
+      <c r="X213" s="6" t="n">
+        <v>45012</v>
+      </c>
+      <c r="Y213" s="5" t="inlineStr">
+        <is>
+          <t>AGM SILVER CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="Z213" s="5" t="inlineStr">
+        <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O213" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P213" s="5" t="inlineStr"/>
-      <c r="Q213" s="6" t="n">
-        <v>44882</v>
-      </c>
-      <c r="R213" s="5" t="inlineStr">
-        <is>
-          <t>QRF2022-RVI-022-ILOILO-L1</t>
-        </is>
-      </c>
-      <c r="S213" s="5" t="inlineStr"/>
-      <c r="T213" s="6" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U213" s="5" t="inlineStr"/>
-      <c r="V213" s="6" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W213" s="6" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X213" s="6" t="n">
-        <v>44848</v>
-      </c>
-      <c r="Y213" s="5" t="inlineStr">
-        <is>
-          <t>ANJUSH BUILDERS</t>
-        </is>
-      </c>
-      <c r="Z213" s="5" t="inlineStr"/>
       <c r="AA213" s="7" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B214" s="5" t="inlineStr">
@@ -20594,74 +20604,102 @@
       </c>
       <c r="C214" s="5" t="inlineStr">
         <is>
-          <t>Kabankalan City</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D214" s="5" t="n">
-        <v>117833</v>
+        <v>115858</v>
       </c>
       <c r="E214" s="5" t="inlineStr">
         <is>
-          <t>Bugtong ES</t>
+          <t>Suclaran Central School</t>
         </is>
       </c>
       <c r="F214" s="5" t="inlineStr">
         <is>
-          <t>CITY OF KABANKALAN</t>
-        </is>
-      </c>
-      <c r="G214" s="5" t="n">
-        <v>6</v>
+          <t>SAN LORENZO</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="inlineStr">
+        <is>
+          <t>Lone</t>
+        </is>
       </c>
       <c r="H214" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I214" s="5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J214" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K214" s="5" t="n">
-        <v>7562127.58</v>
+        <v>6521637.257870592</v>
       </c>
       <c r="L214" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M214" s="5" t="inlineStr"/>
+      <c r="M214" s="5" t="n">
+        <v>6471000</v>
+      </c>
       <c r="N214" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O214" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P214" s="6" t="n">
-        <v>45189</v>
-      </c>
-      <c r="Q214" s="5" t="inlineStr"/>
-      <c r="R214" s="5" t="inlineStr"/>
-      <c r="S214" s="5" t="inlineStr"/>
-      <c r="T214" s="5" t="inlineStr"/>
-      <c r="U214" s="5" t="inlineStr"/>
-      <c r="V214" s="5" t="inlineStr"/>
-      <c r="W214" s="5" t="inlineStr"/>
-      <c r="X214" s="5" t="inlineStr"/>
+        <v>45174</v>
+      </c>
+      <c r="Q214" s="6" t="n">
+        <v>45170</v>
+      </c>
+      <c r="R214" s="5" t="inlineStr">
+        <is>
+          <t>01-2023</t>
+        </is>
+      </c>
+      <c r="S214" s="5" t="inlineStr">
+        <is>
+          <t>01-2023</t>
+        </is>
+      </c>
+      <c r="T214" s="6" t="n">
+        <v>44959</v>
+      </c>
+      <c r="U214" s="6" t="n">
+        <v>44984</v>
+      </c>
+      <c r="V214" s="6" t="n">
+        <v>44987</v>
+      </c>
+      <c r="W214" s="6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="X214" s="6" t="n">
+        <v>45012</v>
+      </c>
       <c r="Y214" s="5" t="inlineStr">
         <is>
-          <t>rism builders and construction services inc</t>
-        </is>
-      </c>
-      <c r="Z214" s="5" t="inlineStr"/>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="Z214" s="5" t="inlineStr">
+        <is>
+          <t>substancially completed; conducted final inspection</t>
+        </is>
+      </c>
       <c r="AA214" s="7" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2024</t>
         </is>
       </c>
       <c r="B215" s="5" t="inlineStr">
@@ -20671,24 +20709,26 @@
       </c>
       <c r="C215" s="5" t="inlineStr">
         <is>
-          <t>La Carlota City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D215" s="5" t="n">
-        <v>183001</v>
+        <v>116055</v>
       </c>
       <c r="E215" s="5" t="inlineStr">
         <is>
-          <t>Haguimit ES II</t>
+          <t>Salihid ES</t>
         </is>
       </c>
       <c r="F215" s="5" t="inlineStr">
         <is>
-          <t>LA CARLOTA CITY</t>
-        </is>
-      </c>
-      <c r="G215" s="5" t="n">
-        <v>4</v>
+          <t>BAROTAC NUEVO</t>
+        </is>
+      </c>
+      <c r="G215" s="5" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
       </c>
       <c r="H215" s="5" t="n">
         <v>1</v>
@@ -20698,848 +20738,72 @@
       </c>
       <c r="J215" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>1STY2CL</t>
         </is>
       </c>
       <c r="K215" s="5" t="n">
-        <v>5033505.33</v>
-      </c>
-      <c r="L215" s="5" t="n">
-        <v>1</v>
+        <v>9475815.289999999</v>
+      </c>
+      <c r="L215" s="5" t="inlineStr">
+        <is>
+          <t>1- NC</t>
+        </is>
       </c>
       <c r="M215" s="5" t="n">
-        <v>4786615.62</v>
+        <v>6702484.43</v>
       </c>
       <c r="N215" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="O215" s="5" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="P215" s="6" t="n">
-        <v>45042</v>
-      </c>
-      <c r="Q215" s="6" t="n">
-        <v>45225</v>
-      </c>
-      <c r="R215" s="5" t="n">
-        <v>44835</v>
-      </c>
-      <c r="S215" s="5" t="n">
-        <v>44835</v>
+        <v>45875</v>
+      </c>
+      <c r="Q215" s="5" t="inlineStr"/>
+      <c r="R215" s="5" t="inlineStr">
+        <is>
+          <t>QRF2024-RVI-022-ILOILO-L1</t>
+        </is>
+      </c>
+      <c r="S215" s="5" t="inlineStr">
+        <is>
+          <t>QRF2024-RVI-022-ILOILO-L1</t>
+        </is>
       </c>
       <c r="T215" s="6" t="n">
-        <v>44797</v>
+        <v>45512</v>
       </c>
       <c r="U215" s="6" t="n">
-        <v>44806</v>
+        <v>45518</v>
       </c>
       <c r="V215" s="6" t="n">
-        <v>44818</v>
-      </c>
-      <c r="W215" s="5" t="inlineStr"/>
+        <v>45534</v>
+      </c>
+      <c r="W215" s="6" t="n">
+        <v>45546</v>
+      </c>
       <c r="X215" s="6" t="n">
-        <v>44855</v>
+        <v>45632</v>
       </c>
       <c r="Y215" s="5" t="inlineStr">
         <is>
-          <t>Alesca Construction Services</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z215" s="5" t="inlineStr">
         <is>
-          <t>On -going, with approved time extension</t>
+          <t>For Contract</t>
         </is>
       </c>
       <c r="AA215" s="7" t="n"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022</t>
-        </is>
-      </c>
-      <c r="B216" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C216" s="5" t="inlineStr">
-        <is>
-          <t>San Carlos City</t>
-        </is>
-      </c>
-      <c r="D216" s="5" t="n">
-        <v>117763</v>
-      </c>
-      <c r="E216" s="5" t="inlineStr">
-        <is>
-          <t>Prosperidad ES</t>
-        </is>
-      </c>
-      <c r="F216" s="5" t="inlineStr">
-        <is>
-          <t>SAN CARLOS CITY</t>
-        </is>
-      </c>
-      <c r="G216" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H216" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J216" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR/ REHABILITATION</t>
-        </is>
-      </c>
-      <c r="K216" s="5" t="n">
-        <v>3925500.03</v>
-      </c>
-      <c r="L216" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" s="5" t="n">
-        <v>3904313.69</v>
-      </c>
-      <c r="N216" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O216" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P216" s="6" t="n">
-        <v>45056</v>
-      </c>
-      <c r="Q216" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="R216" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022-RVI-SAN CARLOS CITY-003(BATCH1, Typoon oditte</t>
-        </is>
-      </c>
-      <c r="S216" s="5" t="n">
-        <v>8652568</v>
-      </c>
-      <c r="T216" s="6" t="n">
-        <v>44689</v>
-      </c>
-      <c r="U216" s="6" t="n">
-        <v>44697</v>
-      </c>
-      <c r="V216" s="6" t="n">
-        <v>44711</v>
-      </c>
-      <c r="W216" s="6" t="n">
-        <v>44917</v>
-      </c>
-      <c r="X216" s="6" t="n">
-        <v>44930</v>
-      </c>
-      <c r="Y216" s="5" t="inlineStr">
-        <is>
-          <t>PAR Builder and Construction Supply, Corp.</t>
-        </is>
-      </c>
-      <c r="Z216" s="5" t="inlineStr">
-        <is>
-          <t>realigned change physical target same school</t>
-        </is>
-      </c>
-      <c r="AA216" s="7" t="n"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022</t>
-        </is>
-      </c>
-      <c r="B217" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C217" s="5" t="inlineStr">
-        <is>
-          <t>Silay City</t>
-        </is>
-      </c>
-      <c r="D217" s="5" t="n">
-        <v>117821</v>
-      </c>
-      <c r="E217" s="5" t="inlineStr">
-        <is>
-          <t>Guimbala-on ES</t>
-        </is>
-      </c>
-      <c r="F217" s="5" t="inlineStr">
-        <is>
-          <t>SILAY CITY</t>
-        </is>
-      </c>
-      <c r="G217" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H217" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J217" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR/ REHABILITATION</t>
-        </is>
-      </c>
-      <c r="K217" s="5" t="n">
-        <v>1314790.08</v>
-      </c>
-      <c r="L217" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" s="5" t="n">
-        <v>1105354</v>
-      </c>
-      <c r="N217" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O217" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P217" s="5" t="inlineStr"/>
-      <c r="Q217" s="5" t="inlineStr"/>
-      <c r="R217" s="5" t="inlineStr">
-        <is>
-          <t>R6-D18-QRF2022-GES</t>
-        </is>
-      </c>
-      <c r="S217" s="5" t="inlineStr">
-        <is>
-          <t>R6-D18-QRF2022-GES</t>
-        </is>
-      </c>
-      <c r="T217" s="6" t="n">
-        <v>44832</v>
-      </c>
-      <c r="U217" s="6" t="n">
-        <v>44840</v>
-      </c>
-      <c r="V217" s="6" t="n">
-        <v>44853</v>
-      </c>
-      <c r="W217" s="6" t="n">
-        <v>44900</v>
-      </c>
-      <c r="X217" s="6" t="n">
-        <v>44930</v>
-      </c>
-      <c r="Y217" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="Z217" s="5" t="inlineStr"/>
-      <c r="AA217" s="7" t="n"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022</t>
-        </is>
-      </c>
-      <c r="B218" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C218" s="5" t="inlineStr">
-        <is>
-          <t>Silay City</t>
-        </is>
-      </c>
-      <c r="D218" s="5" t="n">
-        <v>117821</v>
-      </c>
-      <c r="E218" s="5" t="inlineStr">
-        <is>
-          <t>Guimbala-on ES</t>
-        </is>
-      </c>
-      <c r="F218" s="5" t="inlineStr">
-        <is>
-          <t>SILAY CITY</t>
-        </is>
-      </c>
-      <c r="G218" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H218" s="5" t="inlineStr"/>
-      <c r="I218" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J218" s="5" t="inlineStr">
-        <is>
-          <t>NEW CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="K218" s="5" t="n">
-        <v>13240270.81</v>
-      </c>
-      <c r="L218" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" s="5" t="n">
-        <v>11131196</v>
-      </c>
-      <c r="N218" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O218" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P218" s="6" t="n">
-        <v>45250</v>
-      </c>
-      <c r="Q218" s="5" t="inlineStr"/>
-      <c r="R218" s="5" t="inlineStr">
-        <is>
-          <t>R6-D18-QRF2022-GES</t>
-        </is>
-      </c>
-      <c r="S218" s="5" t="inlineStr">
-        <is>
-          <t>R6-D18-QRF2022-GES</t>
-        </is>
-      </c>
-      <c r="T218" s="6" t="n">
-        <v>44832</v>
-      </c>
-      <c r="U218" s="6" t="n">
-        <v>44840</v>
-      </c>
-      <c r="V218" s="6" t="n">
-        <v>44853</v>
-      </c>
-      <c r="W218" s="6" t="n">
-        <v>44900</v>
-      </c>
-      <c r="X218" s="6" t="n">
-        <v>44930</v>
-      </c>
-      <c r="Y218" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="Z218" s="5" t="inlineStr">
-        <is>
-          <t>Waiting for approval of variation order</t>
-        </is>
-      </c>
-      <c r="AA218" s="7" t="n"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022</t>
-        </is>
-      </c>
-      <c r="B219" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C219" s="5" t="inlineStr">
-        <is>
-          <t>Sipalay City</t>
-        </is>
-      </c>
-      <c r="D219" s="5" t="n">
-        <v>117367</v>
-      </c>
-      <c r="E219" s="5" t="inlineStr">
-        <is>
-          <t>Binulig ES</t>
-        </is>
-      </c>
-      <c r="F219" s="5" t="inlineStr">
-        <is>
-          <t>CITY OF SIPALAY</t>
-        </is>
-      </c>
-      <c r="G219" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H219" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J219" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR/ REHABILITATION</t>
-        </is>
-      </c>
-      <c r="K219" s="5" t="n">
-        <v>1971461.23</v>
-      </c>
-      <c r="L219" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" s="5" t="inlineStr"/>
-      <c r="N219" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O219" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P219" s="5" t="inlineStr"/>
-      <c r="Q219" s="5" t="inlineStr"/>
-      <c r="R219" s="5" t="inlineStr"/>
-      <c r="S219" s="5" t="inlineStr"/>
-      <c r="T219" s="5" t="inlineStr"/>
-      <c r="U219" s="5" t="inlineStr"/>
-      <c r="V219" s="5" t="inlineStr"/>
-      <c r="W219" s="5" t="inlineStr"/>
-      <c r="X219" s="5" t="inlineStr"/>
-      <c r="Y219" s="5" t="inlineStr"/>
-      <c r="Z219" s="5" t="inlineStr"/>
-      <c r="AA219" s="7" t="n"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B220" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C220" s="5" t="inlineStr">
-        <is>
-          <t>Aklan</t>
-        </is>
-      </c>
-      <c r="D220" s="5" t="n">
-        <v>114719</v>
-      </c>
-      <c r="E220" s="5" t="inlineStr">
-        <is>
-          <t>Ibajay Central School</t>
-        </is>
-      </c>
-      <c r="F220" s="5" t="inlineStr">
-        <is>
-          <t>IBAJAY</t>
-        </is>
-      </c>
-      <c r="G220" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H220" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J220" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K220" s="5" t="n">
-        <v>1358264.33519175</v>
-      </c>
-      <c r="L220" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" s="5" t="n">
-        <v>1078677.99</v>
-      </c>
-      <c r="N220" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O220" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P220" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="Q220" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="R220" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
-        </is>
-      </c>
-      <c r="S220" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
-        </is>
-      </c>
-      <c r="T220" s="6" t="n">
-        <v>44963</v>
-      </c>
-      <c r="U220" s="6" t="n">
-        <v>44970</v>
-      </c>
-      <c r="V220" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="W220" s="6" t="n">
-        <v>44993</v>
-      </c>
-      <c r="X220" s="6" t="n">
-        <v>45012</v>
-      </c>
-      <c r="Y220" s="5" t="inlineStr">
-        <is>
-          <t>AGM SILVER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z220" s="5" t="inlineStr"/>
-      <c r="AA220" s="7" t="n"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B221" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C221" s="5" t="inlineStr">
-        <is>
-          <t>Aklan</t>
-        </is>
-      </c>
-      <c r="D221" s="5" t="n">
-        <v>114786</v>
-      </c>
-      <c r="E221" s="5" t="inlineStr">
-        <is>
-          <t>Libacao Central ES</t>
-        </is>
-      </c>
-      <c r="F221" s="5" t="inlineStr">
-        <is>
-          <t>LIBACAO</t>
-        </is>
-      </c>
-      <c r="G221" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H221" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J221" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K221" s="5" t="n">
-        <v>1505376.28</v>
-      </c>
-      <c r="L221" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" s="5" t="n">
-        <v>1248136.99</v>
-      </c>
-      <c r="N221" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O221" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P221" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="Q221" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="R221" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
-        </is>
-      </c>
-      <c r="S221" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022QRF(REPAIR)-007-2023</t>
-        </is>
-      </c>
-      <c r="T221" s="6" t="n">
-        <v>44963</v>
-      </c>
-      <c r="U221" s="6" t="n">
-        <v>44970</v>
-      </c>
-      <c r="V221" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="W221" s="6" t="n">
-        <v>44993</v>
-      </c>
-      <c r="X221" s="6" t="n">
-        <v>45012</v>
-      </c>
-      <c r="Y221" s="5" t="inlineStr">
-        <is>
-          <t>AGM SILVER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z221" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="AA221" s="7" t="n"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B222" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C222" s="5" t="inlineStr">
-        <is>
-          <t>Guimaras</t>
-        </is>
-      </c>
-      <c r="D222" s="5" t="n">
-        <v>115858</v>
-      </c>
-      <c r="E222" s="5" t="inlineStr">
-        <is>
-          <t>Suclaran Central School</t>
-        </is>
-      </c>
-      <c r="F222" s="5" t="inlineStr">
-        <is>
-          <t>SAN LORENZO</t>
-        </is>
-      </c>
-      <c r="G222" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H222" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="J222" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K222" s="5" t="n">
-        <v>6521637.257870592</v>
-      </c>
-      <c r="L222" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" s="5" t="n">
-        <v>6471000</v>
-      </c>
-      <c r="N222" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O222" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P222" s="6" t="n">
-        <v>45174</v>
-      </c>
-      <c r="Q222" s="6" t="n">
-        <v>45170</v>
-      </c>
-      <c r="R222" s="5" t="inlineStr">
-        <is>
-          <t>01-2023</t>
-        </is>
-      </c>
-      <c r="S222" s="5" t="inlineStr">
-        <is>
-          <t>01-2023</t>
-        </is>
-      </c>
-      <c r="T222" s="6" t="n">
-        <v>44959</v>
-      </c>
-      <c r="U222" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="V222" s="6" t="n">
-        <v>44987</v>
-      </c>
-      <c r="W222" s="6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="X222" s="6" t="n">
-        <v>45012</v>
-      </c>
-      <c r="Y222" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="Z222" s="5" t="inlineStr">
-        <is>
-          <t>substancially completed; conducted final inspection</t>
-        </is>
-      </c>
-      <c r="AA222" s="7" t="n"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2024</t>
-        </is>
-      </c>
-      <c r="B223" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C223" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D223" s="5" t="n">
-        <v>116055</v>
-      </c>
-      <c r="E223" s="5" t="inlineStr">
-        <is>
-          <t>Salihid ES</t>
-        </is>
-      </c>
-      <c r="F223" s="5" t="inlineStr">
-        <is>
-          <t>BAROTAC NUEVO</t>
-        </is>
-      </c>
-      <c r="G223" s="5" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="H223" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J223" s="5" t="inlineStr">
-        <is>
-          <t>1STY2CL</t>
-        </is>
-      </c>
-      <c r="K223" s="5" t="n">
-        <v>9475815.289999999</v>
-      </c>
-      <c r="L223" s="5" t="inlineStr">
-        <is>
-          <t>1- NC</t>
-        </is>
-      </c>
-      <c r="M223" s="5" t="n">
-        <v>6702484.43</v>
-      </c>
-      <c r="N223" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="O223" s="5" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="P223" s="6" t="n">
-        <v>45875</v>
-      </c>
-      <c r="Q223" s="5" t="inlineStr"/>
-      <c r="R223" s="5" t="inlineStr">
-        <is>
-          <t>QRF2024-RVI-022-ILOILO-L1</t>
-        </is>
-      </c>
-      <c r="S223" s="5" t="inlineStr">
-        <is>
-          <t>QRF2024-RVI-022-ILOILO-L1</t>
-        </is>
-      </c>
-      <c r="T223" s="6" t="n">
-        <v>45512</v>
-      </c>
-      <c r="U223" s="6" t="n">
-        <v>45518</v>
-      </c>
-      <c r="V223" s="6" t="n">
-        <v>45534</v>
-      </c>
-      <c r="W223" s="6" t="n">
-        <v>45546</v>
-      </c>
-      <c r="X223" s="6" t="n">
-        <v>45632</v>
-      </c>
-      <c r="Y223" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z223" s="5" t="inlineStr">
-        <is>
-          <t>For Contract</t>
-        </is>
-      </c>
-      <c r="AA223" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA223" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA215" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
